--- a/biology/Botanique/Olea_caudatilimba/Olea_caudatilimba.xlsx
+++ b/biology/Botanique/Olea_caudatilimba/Olea_caudatilimba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea caudatilimba L. C. Chia est un végétal appartenant au genre Olea (en langue chinoise translittérée : wei ye mu xi lan). C'est un arbre de 3 à 8 m qui pousse en Chine dans les montagnes du Yunnan.
 </t>
@@ -513,14 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Ce sont des arbres ou arbustes de 3 à 8 m de hauteur. Les petites branches sont légèrement comprimées, pubérulentes. Le pétiole mesure 8 à 10 mm, pubescent.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des arbres ou arbustes de 3 à 8 m de hauteur. Les petites branches sont légèrement comprimées, pubérulentes. Le pétiole mesure 8 à 10 mm, pubescent.
 Les feuilles sont lancéolées ou elliptiques-oblongues de 5,5 à 9 cm par 2 à 3,5 cm, coriaces, glabres, la base cunéiforme ou largement cunéiforme, la marge est entière, l'apex de la feuille est acuminé à caudato-acuminé et obtus. Les nervures primaires sont au nombre  de 10 à 15 de part et d'autre de la nervure principale, presque à angle droit avec celle-ci, légèrement saillantes.
-Appareil reproducteur
-Les panicules floraux sont axillaires ou terminaux, de 2,5 à 3 cm, peu garnis en fleurs, pubescents. Les fleurs sont bisexuées. Le pédoncule mesure 0 à 3 mm. Le calice mesure 1,5 à 2 mm. La corolle est jaunâtre, de 3 mm. Les lobes sont longs et elliptiques, de 2 mm, obtus.
-Le fruit est une drupe longue, ellipsoïde de 7 à 12 par 3,5 à 6.5 mm, avec des lenticelles éparses. La floraison survient en avril, la mise à fruits en mai-juin.
-Répartition géographique
-C'est un arbre de la flore de Chine où il vit dans la région du Yunnan, dans des crevasses rocheuses à environ 1500 m d'altitude. C'est un arbre de climat plutôt tempéré.
 </t>
         </is>
       </c>
@@ -546,12 +558,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Utilisations</t>
+          <t>Description botanique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un arbre utilisé dans les parcs et jardins.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les panicules floraux sont axillaires ou terminaux, de 2,5 à 3 cm, peu garnis en fleurs, pubescents. Les fleurs sont bisexuées. Le pédoncule mesure 0 à 3 mm. Le calice mesure 1,5 à 2 mm. La corolle est jaunâtre, de 3 mm. Les lobes sont longs et elliptiques, de 2 mm, obtus.
+Le fruit est une drupe longue, ellipsoïde de 7 à 12 par 3,5 à 6.5 mm, avec des lenticelles éparses. La floraison survient en avril, la mise à fruits en mai-juin.
 </t>
         </is>
       </c>
@@ -577,10 +596,82 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre de la flore de Chine où il vit dans la région du Yunnan, dans des crevasses rocheuses à environ 1500 m d'altitude. C'est un arbre de climat plutôt tempéré.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olea_caudatilimba</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_caudatilimba</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre utilisé dans les parcs et jardins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olea_caudatilimba</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_caudatilimba</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
